--- a/output/best_results.xlsx
+++ b/output/best_results.xlsx
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003999471664428711</v>
+        <v>0.004999399185180664</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001004695892333984</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -539,22 +539,22 @@
         <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003999710083007812</v>
+        <v>0.00899815559387207</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001999378204345703</v>
+        <v>0.001997709274291992</v>
       </c>
       <c r="H3" t="n">
         <v>0.9722222222222222</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
@@ -575,22 +575,22 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01850581169128418</v>
+        <v>0.02100205421447754</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0050048828125</v>
+        <v>0.004996776580810547</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
@@ -614,19 +614,19 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1174757480621338</v>
+        <v>0.1135110855102539</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02602767944335938</v>
+        <v>0.02700448036193848</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8305555555555556</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>1129</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6">
@@ -650,10 +650,10 @@
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01852226257324219</v>
+        <v>0.01499772071838379</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005025148391723633</v>
+        <v>0.003998279571533203</v>
       </c>
       <c r="H6" t="n">
         <v>0.9927272727272727</v>
@@ -662,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -683,22 +683,22 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7145774364471436</v>
+        <v>0.5790247917175293</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1031274795532227</v>
+        <v>0.1035697460174561</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9698058950395398</v>
+        <v>0.9766355140186916</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>2035</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="8">
@@ -722,13 +722,13 @@
         <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1347172260284424</v>
+        <v>0.1335210800170898</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03155422210693359</v>
+        <v>0.02999973297119141</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9989655172413793</v>
+        <v>0.9983620689655173</v>
       </c>
       <c r="I8" t="n">
         <v>14</v>
@@ -755,22 +755,22 @@
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3007752895355225</v>
+        <v>0.4211299419403076</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08202552795410156</v>
+        <v>0.1555407047271729</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8245470365441704</v>
+        <v>0.8211690039922203</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>971</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="10">
@@ -794,19 +794,19 @@
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>9.189083576202393</v>
+        <v>7.885231256484985</v>
       </c>
       <c r="G10" t="n">
-        <v>3.866678714752197</v>
+        <v>2.573310852050781</v>
       </c>
       <c r="H10" t="n">
-        <v>0.90793</v>
+        <v>0.906395</v>
       </c>
       <c r="I10" t="n">
         <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>41483</v>
+        <v>46087</v>
       </c>
     </row>
     <row r="11">
@@ -830,13 +830,13 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004997491836547852</v>
+        <v>0.004998683929443359</v>
       </c>
       <c r="G11" t="n">
         <v>0.002000093460083008</v>
       </c>
       <c r="H11" t="n">
-        <v>4165.130380742202</v>
+        <v>3784.923591027473</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
@@ -863,22 +863,22 @@
         <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02899956703186035</v>
+        <v>0.07251906394958496</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01200771331787109</v>
+        <v>0.01799941062927246</v>
       </c>
       <c r="H12" t="n">
-        <v>1340.509056196553</v>
+        <v>1400.28431372549</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>251</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13">
@@ -902,13 +902,13 @@
         <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>0.364506721496582</v>
+        <v>0.3387191295623779</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1248009204864502</v>
+        <v>0.1205446720123291</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5696148771052978</v>
+        <v>0.5591112107896037</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>

--- a/output/best_results.xlsx
+++ b/output/best_results.xlsx
@@ -506,19 +506,19 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004999399185180664</v>
+        <v>0.003998517990112305</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.001999855041503906</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -539,22 +539,22 @@
         <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00899815559387207</v>
+        <v>0.01099395751953125</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001997709274291992</v>
+        <v>0.003000497817993164</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="I3" t="n">
         <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -575,22 +575,22 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02100205421447754</v>
+        <v>0.02399587631225586</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004996776580810547</v>
+        <v>0.006999969482421875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="I4" t="n">
         <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
@@ -611,22 +611,22 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1135110855102539</v>
+        <v>0.1169960498809814</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02700448036193848</v>
+        <v>0.03900146484375</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8194444444444444</v>
+        <v>0.8027777777777778</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>1091</v>
+        <v>951</v>
       </c>
     </row>
     <row r="6">
@@ -647,22 +647,22 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01499772071838379</v>
+        <v>0.01799631118774414</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003998279571533203</v>
+        <v>0.006999492645263672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9927272727272727</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
@@ -686,19 +686,19 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5790247917175293</v>
+        <v>0.6499865055084229</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1035697460174561</v>
+        <v>0.1480066776275635</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9766355140186916</v>
+        <v>0.9755571531272466</v>
       </c>
       <c r="I7" t="n">
         <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>2277</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="8">
@@ -719,22 +719,22 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1335210800170898</v>
+        <v>0.1620001792907715</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02999973297119141</v>
+        <v>0.04699993133544922</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9983620689655173</v>
+        <v>0.9986206896551724</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
-        <v>743</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9">
@@ -758,19 +758,19 @@
         <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4211299419403076</v>
+        <v>0.6138894557952881</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1555407047271729</v>
+        <v>0.3400123119354248</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8211690039922203</v>
+        <v>0.8232162964479476</v>
       </c>
       <c r="I9" t="n">
         <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>3465</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="10">
@@ -794,19 +794,19 @@
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>7.885231256484985</v>
+        <v>13.23762583732605</v>
       </c>
       <c r="G10" t="n">
-        <v>2.573310852050781</v>
+        <v>5.794997930526733</v>
       </c>
       <c r="H10" t="n">
-        <v>0.906395</v>
+        <v>0.90476</v>
       </c>
       <c r="I10" t="n">
         <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>46087</v>
+        <v>43285</v>
       </c>
     </row>
     <row r="11">
@@ -830,13 +830,13 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004998683929443359</v>
+        <v>0.007001399993896484</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002000093460083008</v>
+        <v>0.003000020980834961</v>
       </c>
       <c r="H11" t="n">
-        <v>3784.923591027473</v>
+        <v>3531.331410322724</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
@@ -866,16 +866,16 @@
         <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07251906394958496</v>
+        <v>0.1039998531341553</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01799941062927246</v>
+        <v>0.03399991989135742</v>
       </c>
       <c r="H12" t="n">
-        <v>1400.28431372549</v>
+        <v>1274.549019607843</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
         <v>807</v>
@@ -902,19 +902,19 @@
         <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3387191295623779</v>
+        <v>0.419013500213623</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1205446720123291</v>
+        <v>0.2039999961853027</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5591112107896037</v>
+        <v>0.5357662328156834</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>4091</v>
+        <v>4095</v>
       </c>
     </row>
   </sheetData>
